--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5d7c6a3cb424110/Documents/Sameera/UiPath Traning/ExcelFile/Employee_Attendance_Monthly_Report/Config/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_F25DC773A252ABDACC10488BC19A61F25BDE58E4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{96146AE8-8D36-42D2-BB72-B4D1C98E3AF5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C9FB4-3A18-460B-8BDD-46F3281F76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,24 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Data\Input</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Data\Output</t>
+  </si>
+  <si>
+    <t>InputFolder</t>
+  </si>
+  <si>
+    <t>OutputFolder</t>
+  </si>
+  <si>
+    <t>LogFilePath</t>
+  </si>
+  <si>
+    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Log</t>
   </si>
 </sst>
 </file>
@@ -351,13 +369,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="96.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -368,6 +390,30 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\Employee_Attendance_Monthly_Report_Generator\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543C9FB4-3A18-460B-8BDD-46F3281F76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D721167-8D69-4BA7-ADC2-663A48DB45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -372,16 +372,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="2" max="2" width="96.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="96.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -392,7 +392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -400,7 +400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -408,7 +408,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>

--- a/Config/Config.xlsx
+++ b/Config/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\UiPath\Employee_Attendance_Monthly_Report_Generator\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D721167-8D69-4BA7-ADC2-663A48DB45D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73EFBC0-215E-4164-B319-D2FC62AED7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Data\Input</t>
-  </si>
-  <si>
-    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Data\Output</t>
-  </si>
-  <si>
     <t>InputFolder</t>
   </si>
   <si>
@@ -51,7 +45,13 @@
     <t>LogFilePath</t>
   </si>
   <si>
-    <t>C:\Users\LENOVO\Documents\UiPath\ExcelFile\Employee_Attendance_Monthly_Report_Process\Log</t>
+    <t>C:\Users\user\Documents\UiPath\Employee_Attendance_Monthly_Report_Generator\Data\Input</t>
+  </si>
+  <si>
+    <t>C:\Users\user\Documents\UiPath\Employee_Attendance_Monthly_Report_Generator\Data\Output</t>
+  </si>
+  <si>
+    <t>C:\Users\user\Documents\UiPath\Employee_Attendance_Monthly_Report_Generator\Log</t>
   </si>
 </sst>
 </file>
@@ -372,7 +372,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -394,23 +394,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
